--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Github\IST_PSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828B3E85-51F9-4586-B68E-583EDBED4956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1774FD-C123-425A-85CE-1E3AEC2CD5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="9" r:id="rId1"/>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
@@ -1096,9 +1096,9 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
